--- a/output/fit_clients/fit_round_282.xlsx
+++ b/output/fit_clients/fit_round_282.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1760966890.927612</v>
+        <v>1949489456.773489</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0720835879711695</v>
+        <v>0.07066655964471283</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03085641038398674</v>
+        <v>0.03269869348459672</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>880483408.9474466</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2647460487.914916</v>
+        <v>1808848704.597829</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1708005092706173</v>
+        <v>0.1487987369702476</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04918473800324456</v>
+        <v>0.04743887528570315</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1323730384.283336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4479619812.978933</v>
+        <v>3510411582.484078</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1457309709339743</v>
+        <v>0.1402301366879489</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02699771660946824</v>
+        <v>0.03536480458763105</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>102</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2239809954.639199</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2953413342.852214</v>
+        <v>3738562773.701369</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09095185769112707</v>
+        <v>0.09266361488959478</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03593707701735623</v>
+        <v>0.03375377025051592</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>110</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1476706744.362907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2694774116.837803</v>
+        <v>1982511978.865992</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1127481362077032</v>
+        <v>0.09643038212662869</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04312317066507063</v>
+        <v>0.0548525210760978</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>51</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1347387012.821335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2746610779.876488</v>
+        <v>2819799513.541426</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0828912950731694</v>
+        <v>0.1009488102572043</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04217355309048968</v>
+        <v>0.04179885603212194</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>87</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1373305379.275008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3144799337.202205</v>
+        <v>2678915996.85787</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1779496789387311</v>
+        <v>0.2180962069092231</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02937050823650649</v>
+        <v>0.02492030358414454</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>91</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1572399740.915115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1757078225.975199</v>
+        <v>1954457756.457411</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1837623806935514</v>
+        <v>0.1866674855645148</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02987287567528187</v>
+        <v>0.02719892230746036</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>878539173.2929207</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5380698542.577907</v>
+        <v>4049723227.175134</v>
       </c>
       <c r="F10" t="n">
-        <v>0.151896373142815</v>
+        <v>0.1855145130189033</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04242932377873251</v>
+        <v>0.04018429588668318</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>119</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2690349400.056154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3236877077.021356</v>
+        <v>3334371990.728554</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1572638407339877</v>
+        <v>0.1805268117330387</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03132532092607392</v>
+        <v>0.04020972678672624</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>117</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1618438498.013701</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2634933281.997012</v>
+        <v>2220055396.166166</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1589036176014504</v>
+        <v>0.1980900839644924</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04546656487135729</v>
+        <v>0.03417431761278104</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>96</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1317466625.559795</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5127281197.01926</v>
+        <v>5024788335.904273</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08920563583098139</v>
+        <v>0.06723906433206431</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02731296196562887</v>
+        <v>0.03128283772442524</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>95</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2563640596.182804</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2891284919.954859</v>
+        <v>2881593579.272903</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1448580041580688</v>
+        <v>0.1629075088904252</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03841313568377062</v>
+        <v>0.03304561718892371</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1445642502.281269</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1565610090.417724</v>
+        <v>1317987605.442858</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08866802727192517</v>
+        <v>0.1094592643623818</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04820932176618127</v>
+        <v>0.03211165050767491</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>782805145.5871572</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2900580743.888272</v>
+        <v>2285837418.54688</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08407985617863346</v>
+        <v>0.07119373593927682</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04464716083362377</v>
+        <v>0.05089719946651135</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>54</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1450290366.969501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4563431518.753798</v>
+        <v>3210611947.740316</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1108468064285391</v>
+        <v>0.1190262420844934</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04094560826918365</v>
+        <v>0.04275214231364163</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>82</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2281715766.13448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2545139728.645575</v>
+        <v>2568756572.870154</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1638095740759192</v>
+        <v>0.1137981826347005</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03227756117634897</v>
+        <v>0.02834512283523705</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>92</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1272569927.490826</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1104071719.050587</v>
+        <v>1262680634.868752</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1155508299116552</v>
+        <v>0.171446978796634</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01761780999442441</v>
+        <v>0.02673974802801974</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>552035914.122381</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2521663223.524209</v>
+        <v>1934437503.090913</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1430799408438187</v>
+        <v>0.1183607217341294</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02712391444481294</v>
+        <v>0.02767520807537749</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1260831582.540699</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1953464572.137585</v>
+        <v>2670649628.22187</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08173123211271612</v>
+        <v>0.06790474510714106</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04278226939533062</v>
+        <v>0.04114933881956395</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>23</v>
-      </c>
-      <c r="J21" t="n">
-        <v>976732326.4698677</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3238035612.782367</v>
+        <v>3909338874.823363</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1356169824542932</v>
+        <v>0.1420817037353183</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05170840058007124</v>
+        <v>0.05633425238566935</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>78</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1619017853.666899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1282193253.904342</v>
+        <v>1184106882.829279</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1525685170325739</v>
+        <v>0.1235908633600546</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03453478519124292</v>
+        <v>0.05340219492314407</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>641096649.5841321</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3084382888.350119</v>
+        <v>3601535103.076497</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1133079044565037</v>
+        <v>0.1347140397446405</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03494949904323701</v>
+        <v>0.0321742578966093</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>82</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1542191473.735204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>917391474.1135496</v>
+        <v>1007907982.448491</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09010631331874919</v>
+        <v>0.09804407125803179</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02307968816814935</v>
+        <v>0.02082228250188405</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>458695820.0515563</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1225327902.037366</v>
+        <v>1086384306.353725</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1203083297228335</v>
+        <v>0.1101623276133076</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03199353242620021</v>
+        <v>0.03182053485913934</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>612663978.2346087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4430892775.287663</v>
+        <v>3592864856.198113</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1198695148388826</v>
+        <v>0.1538409608297</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0176789795443885</v>
+        <v>0.01965230229724827</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2215446376.370481</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2631525789.231552</v>
+        <v>2497885573.987768</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1193689661596035</v>
+        <v>0.1225916464621129</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0327325925633821</v>
+        <v>0.04064233987798724</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>91</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1315762873.844919</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3681280767.914674</v>
+        <v>5864647453.84341</v>
       </c>
       <c r="F29" t="n">
-        <v>0.143064919752548</v>
+        <v>0.1343110184434592</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0322458077188538</v>
+        <v>0.04102695466615522</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>125</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1840640422.870709</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2351309089.491302</v>
+        <v>1699574742.452515</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1353397112116863</v>
+        <v>0.1155408096980184</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03782061360099961</v>
+        <v>0.03762065959102825</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1175654622.195469</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1438873773.984078</v>
+        <v>919884007.4740453</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08205609532339257</v>
+        <v>0.08075912006292491</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03516414362579662</v>
+        <v>0.04862850966325748</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>719436782.2178365</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1773361950.908386</v>
+        <v>1770294255.648015</v>
       </c>
       <c r="F32" t="n">
-        <v>0.117703045641418</v>
+        <v>0.0971124783026231</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0307045103693648</v>
+        <v>0.02672183593585173</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>886681100.4355085</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3007277828.306855</v>
+        <v>1956621058.618598</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1787660752033168</v>
+        <v>0.1966174686799739</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04537786421601801</v>
+        <v>0.04111045803628836</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>87</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1503638909.164998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1218448094.652886</v>
+        <v>969965972.9660113</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0895937996589979</v>
+        <v>0.09869088093019798</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0253564841551978</v>
+        <v>0.02703354404390442</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>609224049.3240702</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>967128720.6556542</v>
+        <v>1064737476.538656</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09820041073903329</v>
+        <v>0.1029949149990812</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04202907590345305</v>
+        <v>0.04318308007300915</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>483564386.1130102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2027421836.458546</v>
+        <v>3133549533.026885</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1528907349577952</v>
+        <v>0.1746565242049605</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02216255155514609</v>
+        <v>0.02176301677179728</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>71</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1013710978.06849</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2160571582.293101</v>
+        <v>2013958199.286034</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09823375515661863</v>
+        <v>0.07055486655261961</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03509608258885057</v>
+        <v>0.04161519107047666</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>75</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1080285840.497929</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1817896497.578701</v>
+        <v>2130791901.574487</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08300691637710128</v>
+        <v>0.08041652375521664</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03897981215485997</v>
+        <v>0.03662492860363269</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>908948253.1388209</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2183123774.663745</v>
+        <v>1515588054.716957</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1892292846939913</v>
+        <v>0.1591666262063947</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02161081378767214</v>
+        <v>0.02881325590227833</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1091561854.060349</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1282590326.842943</v>
+        <v>1519184920.311874</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1489270837567254</v>
+        <v>0.1260680505322153</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04285860492788154</v>
+        <v>0.04445265641714054</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>641295184.0353887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1811278359.499939</v>
+        <v>2915365117.420619</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1373692075451557</v>
+        <v>0.1378455816501483</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03989559605299758</v>
+        <v>0.04245704183432735</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>69</v>
-      </c>
-      <c r="J41" t="n">
-        <v>905639272.4143745</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2679560944.444224</v>
+        <v>3419150616.973463</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1145972183292595</v>
+        <v>0.1087833756620281</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03731774356853263</v>
+        <v>0.04036132404550325</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1339780410.592522</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2496584553.667223</v>
+        <v>1906886687.873076</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1915980395442045</v>
+        <v>0.1435556464175135</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02423753750879236</v>
+        <v>0.01772348181170621</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>103</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1248292325.84763</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1737228110.908897</v>
+        <v>1988458825.964688</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09051247495800312</v>
+        <v>0.09362501851686361</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0353452647156272</v>
+        <v>0.02479737804050243</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>868614109.3706074</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2408355142.755375</v>
+        <v>2496816340.505119</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1279199616312786</v>
+        <v>0.1887432609229555</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03834821802850992</v>
+        <v>0.05578891785318595</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1204177603.378153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3542381018.681765</v>
+        <v>4862068410.438175</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1768614850510819</v>
+        <v>0.1203580423889309</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05619038149365342</v>
+        <v>0.05323752445477328</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>100</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1771190452.663635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4987782500.219017</v>
+        <v>4269617868.87981</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1757544149292254</v>
+        <v>0.1468624283903778</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04184690156763218</v>
+        <v>0.05434554167476113</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>76</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2493891305.191688</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3655535998.226931</v>
+        <v>2945032184.933493</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08979547889582205</v>
+        <v>0.09955443925851566</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03835294160099167</v>
+        <v>0.03397843420425834</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>92</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1827768053.527757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1529517866.239869</v>
+        <v>1282875962.622689</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1847284751614213</v>
+        <v>0.1895039498878633</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03711542306618953</v>
+        <v>0.03649575752117377</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>764758960.5611223</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3804513997.531377</v>
+        <v>4078633018.550194</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1258521195917678</v>
+        <v>0.1593342456964969</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03943205427972665</v>
+        <v>0.05319350927428642</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>96</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1902257001.360672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1223499581.48842</v>
+        <v>1112712141.549618</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1533266096427517</v>
+        <v>0.1422619708339384</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04045744458827378</v>
+        <v>0.05382292265766963</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>611749838.4934381</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3712698962.31007</v>
+        <v>3620652706.28511</v>
       </c>
       <c r="F52" t="n">
-        <v>0.108969670009653</v>
+        <v>0.1374011778744009</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05004327709276369</v>
+        <v>0.05740477460363223</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>116</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1856349554.541233</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2619413662.734861</v>
+        <v>2460326040.471867</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1875030507088762</v>
+        <v>0.1992710727804106</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03315690984865865</v>
+        <v>0.0257199630805157</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>81</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1309706890.083242</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4784009696.350712</v>
+        <v>3593537136.441317</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1417654318622488</v>
+        <v>0.1590843272120138</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05234464670496357</v>
+        <v>0.04255061792357089</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>91</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2392004973.827411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3327166807.731615</v>
+        <v>4617763890.821603</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1854340719589688</v>
+        <v>0.1390144907795065</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02170738241538166</v>
+        <v>0.02917851008218437</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1663583349.068119</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1473480226.037044</v>
+        <v>1442892191.923647</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1048574431425051</v>
+        <v>0.1429940805485255</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04976946599816514</v>
+        <v>0.05372798814605509</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>736740159.2146378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3828344429.421797</v>
+        <v>3657708706.251327</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1642697748596539</v>
+        <v>0.1456010625791757</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02228896670998627</v>
+        <v>0.02543757291010042</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>90</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1914172288.664442</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1617343898.877602</v>
+        <v>1783054598.339881</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1510420508016831</v>
+        <v>0.1294128250346602</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02641863362670703</v>
+        <v>0.02446669104788266</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>808671969.8541951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5094357797.416494</v>
+        <v>3577814064.096302</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1130355073742528</v>
+        <v>0.07939404576070547</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04454746981827595</v>
+        <v>0.03389262011224532</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2547178821.85043</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3583796309.574006</v>
+        <v>3710237887.152905</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1413419422889829</v>
+        <v>0.1946102120170089</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03170440037165734</v>
+        <v>0.03128421176048404</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>89</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1791898286.374154</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2989657709.284238</v>
+        <v>2569163283.99933</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1645894972918457</v>
+        <v>0.1193511449158063</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03115700797103542</v>
+        <v>0.02469893015223639</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>97</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1494828836.076614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1829977216.715825</v>
+        <v>2059193044.560388</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1507189589143591</v>
+        <v>0.1268342026996488</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04129849525187681</v>
+        <v>0.04703133602704219</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>914988640.9374872</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5154336967.750511</v>
+        <v>5386963210.006262</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1004655302010443</v>
+        <v>0.07101451521478123</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03292742152092578</v>
+        <v>0.03858649439904203</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>82</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2577168494.739954</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4466499271.306455</v>
+        <v>3923929348.598464</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1823711372906217</v>
+        <v>0.1681897478283605</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02852221026460146</v>
+        <v>0.03473798214231517</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>88</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2233249704.323519</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3946056073.030204</v>
+        <v>5882258695.179332</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1221774246904977</v>
+        <v>0.1276976839433788</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03224181074193937</v>
+        <v>0.0303322706503764</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>101</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1973028058.30012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4664527720.85416</v>
+        <v>3662091385.761364</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1320506114006619</v>
+        <v>0.1082634309280795</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03380320109953446</v>
+        <v>0.043469120663422</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>82</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2332263869.648101</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3428909856.478203</v>
+        <v>2741225597.528222</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07585164408159051</v>
+        <v>0.08478377501385492</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0384508835154895</v>
+        <v>0.03294095635955475</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>90</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1714454910.155466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5688223767.680247</v>
+        <v>4917122302.579253</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09743440862937668</v>
+        <v>0.133874751779354</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04396508404931507</v>
+        <v>0.05087873108150633</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>93</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2844111981.936747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1496706191.349587</v>
+        <v>2475676512.54742</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1116745609148562</v>
+        <v>0.181552431353802</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05736469387606147</v>
+        <v>0.03927142843710144</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>748353035.5323578</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3435843294.681532</v>
+        <v>3453320283.999203</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1030877314573867</v>
+        <v>0.06688810741524825</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03580897292728126</v>
+        <v>0.04182184332275277</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>81</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1717921652.654222</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3895443905.13009</v>
+        <v>4391666882.558776</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1157768671988614</v>
+        <v>0.1735201929608853</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02971483687949268</v>
+        <v>0.02634191586983425</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>104</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1947721975.793895</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2217625608.307125</v>
+        <v>1520645204.640016</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1013903783221921</v>
+        <v>0.08359532980672793</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04216689670413742</v>
+        <v>0.04840487774923522</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1108812715.413656</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3256787448.364684</v>
+        <v>2361092925.199787</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1005131692224016</v>
+        <v>0.0722926773418915</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03782846459626923</v>
+        <v>0.05265987948376344</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>108</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1628393696.629964</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2934370461.850416</v>
+        <v>3435102944.973664</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1372169695074395</v>
+        <v>0.1798695102076579</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02790897507685957</v>
+        <v>0.0326206347537597</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>96</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1467185301.961342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1670526341.928297</v>
+        <v>2069580800.391313</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1642958726433367</v>
+        <v>0.1213130638525933</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03294738384517594</v>
+        <v>0.02478564438146753</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>835263166.0970428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4096207067.188251</v>
+        <v>3293655111.095363</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09867973315383269</v>
+        <v>0.08205205436460999</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03221217628048493</v>
+        <v>0.03427395714423421</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2048103522.344375</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1441947113.587518</v>
+        <v>1700403446.922397</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1171639208448513</v>
+        <v>0.1719446222251611</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02300276495958961</v>
+        <v>0.02459128046570243</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>720973535.939104</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2927071610.721148</v>
+        <v>4266298843.454685</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08730339894832205</v>
+        <v>0.1271567057103348</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03889237018536087</v>
+        <v>0.04913941276813621</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>98</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1463535847.887563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1466649025.459442</v>
+        <v>1309948576.606154</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1162498305032514</v>
+        <v>0.1295414369046319</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02734302452480119</v>
+        <v>0.02545888994370567</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>733324541.1214136</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5450535260.34285</v>
+        <v>3559041950.449139</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09015596982021586</v>
+        <v>0.08781584169087685</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02425459746969666</v>
+        <v>0.0281708021223435</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>60</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2725267701.794909</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3956468877.986525</v>
+        <v>4917332923.485361</v>
       </c>
       <c r="F81" t="n">
-        <v>0.119815067868281</v>
+        <v>0.08828466474205611</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02550800444674564</v>
+        <v>0.0278797765026787</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1978234400.599711</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5478317728.348586</v>
+        <v>3557984657.13262</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1834802360693348</v>
+        <v>0.1748409019032389</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02161125742788821</v>
+        <v>0.02467618549026614</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>99</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2739158821.437068</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1740264088.519481</v>
+        <v>1854521247.290992</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1070930039961162</v>
+        <v>0.09858033994313437</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04068909289968014</v>
+        <v>0.0314023263207872</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>870131997.2428377</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1728038264.645418</v>
+        <v>1730823100.687942</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1145442533943627</v>
+        <v>0.08596017325193367</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03926100233513236</v>
+        <v>0.04891050661312255</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>864019177.1431737</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2610011390.548262</v>
+        <v>3086258446.639817</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1222467959956769</v>
+        <v>0.1699805187254431</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03697159432610168</v>
+        <v>0.04150497435023381</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>106</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1305005712.360147</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2037028251.333118</v>
+        <v>2462737283.243105</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1643634584827564</v>
+        <v>0.1324914125750953</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0218612750667811</v>
+        <v>0.02489586568403444</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>36</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1018514158.449212</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1267766521.154074</v>
+        <v>1003920140.402281</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1627697644410102</v>
+        <v>0.1579008694304914</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03307579311937581</v>
+        <v>0.03466291132072452</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>633883333.5414146</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2451843594.566884</v>
+        <v>2549996953.639243</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1230355076397147</v>
+        <v>0.1548843642578383</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03476076264451308</v>
+        <v>0.03110442257351631</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>112</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1225921773.547999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3260497128.82372</v>
+        <v>3006483616.01092</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1106223814204223</v>
+        <v>0.1488618632609566</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03560224480372864</v>
+        <v>0.03824585538259969</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>96</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1630248583.419443</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1878532152.532933</v>
+        <v>1362345566.988872</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09946855905282609</v>
+        <v>0.09742785491510809</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0532423482142469</v>
+        <v>0.05445008263354051</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>939266124.2770803</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2105924161.574365</v>
+        <v>2104001765.946609</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1192167161148452</v>
+        <v>0.1296823526468498</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04066984726479847</v>
+        <v>0.03802791216674508</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1052962038.915166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2505721055.399114</v>
+        <v>2133155921.864893</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07411780384241076</v>
+        <v>0.09788990463890354</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04666881901220059</v>
+        <v>0.03574315536220009</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>71</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1252860512.12027</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3376135939.195385</v>
+        <v>3626048490.187342</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1216160049065221</v>
+        <v>0.09987223100391737</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04437505802258813</v>
+        <v>0.0549209958094771</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>87</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1688068010.565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2307361703.768006</v>
+        <v>2025519196.659169</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1030711735512929</v>
+        <v>0.168607015013884</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0306181164072701</v>
+        <v>0.03201835774469629</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1153680890.251119</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2900689977.961623</v>
+        <v>2475236469.240633</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1083907325555834</v>
+        <v>0.1250252652129328</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04867612603739179</v>
+        <v>0.05159653991305256</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>69</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1450344995.960302</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1531873175.461138</v>
+        <v>1569881443.587632</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1368463445030362</v>
+        <v>0.1362975574930025</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03649370248607099</v>
+        <v>0.04017215834084333</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>765936624.6882255</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5008223737.316875</v>
+        <v>3750163428.559526</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1459485479007621</v>
+        <v>0.1399605942623769</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01881562874121012</v>
+        <v>0.02015457957479249</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>91</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2504112006.115539</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3796433501.019554</v>
+        <v>2605677130.767719</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09353648504088909</v>
+        <v>0.1260299192086712</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02096528977409126</v>
+        <v>0.03284854846061974</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>75</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1898216789.210923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3202521720.615192</v>
+        <v>2169198318.326889</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1113011802191556</v>
+        <v>0.09345597221849493</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02904020347719999</v>
+        <v>0.03339032192632813</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>89</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1601260860.977508</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3818587721.295169</v>
+        <v>4782207105.376503</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1297884566675838</v>
+        <v>0.1478384598913322</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02348700282796172</v>
+        <v>0.02818150911997353</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>87</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1909293916.847396</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2887134143.448566</v>
+        <v>2840977150.370335</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2231451040571772</v>
+        <v>0.1727323008214689</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04909879567143699</v>
+        <v>0.05384313020601158</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>112</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1443567145.838876</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_282.xlsx
+++ b/output/fit_clients/fit_round_282.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1949489456.773489</v>
+        <v>2323931518.309466</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07066655964471283</v>
+        <v>0.1015857725647043</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03269869348459672</v>
+        <v>0.02791588579385216</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1808848704.597829</v>
+        <v>1921875556.197879</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1487987369702476</v>
+        <v>0.1689818131302352</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04743887528570315</v>
+        <v>0.0308151156155225</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3510411582.484078</v>
+        <v>5074917054.803505</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1402301366879489</v>
+        <v>0.1400317274660949</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03536480458763105</v>
+        <v>0.03715054212048243</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3738562773.701369</v>
+        <v>3819524485.204636</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09266361488959478</v>
+        <v>0.07154131031357032</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03375377025051592</v>
+        <v>0.04421506364943045</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1982511978.865992</v>
+        <v>2136600963.63885</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09643038212662869</v>
+        <v>0.1296558990372637</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0548525210760978</v>
+        <v>0.05157108886714296</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2819799513.541426</v>
+        <v>2230009556.073183</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1009488102572043</v>
+        <v>0.09830883289000177</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04179885603212194</v>
+        <v>0.04547871134900028</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2678915996.85787</v>
+        <v>3160300378.354674</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2180962069092231</v>
+        <v>0.1373951463124832</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02492030358414454</v>
+        <v>0.03172597487910338</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1954457756.457411</v>
+        <v>1796308868.158325</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1866674855645148</v>
+        <v>0.1443053855789938</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02719892230746036</v>
+        <v>0.03009760351259161</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4049723227.175134</v>
+        <v>5047141784.654881</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1855145130189033</v>
+        <v>0.1822180640823702</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04018429588668318</v>
+        <v>0.05327350874520487</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3334371990.728554</v>
+        <v>2887971168.803678</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1805268117330387</v>
+        <v>0.1286544040632596</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04020972678672624</v>
+        <v>0.0500018920623409</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2220055396.166166</v>
+        <v>3009016733.966416</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1980900839644924</v>
+        <v>0.1976574521730318</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03417431761278104</v>
+        <v>0.0344541322601463</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5024788335.904273</v>
+        <v>3999647411.138175</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06723906433206431</v>
+        <v>0.08984762967938525</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03128283772442524</v>
+        <v>0.02593226382935753</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2881593579.272903</v>
+        <v>2645591866.582804</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1629075088904252</v>
+        <v>0.1434636723761533</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03304561718892371</v>
+        <v>0.03517180363402064</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1317987605.442858</v>
+        <v>1334539173.712293</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1094592643623818</v>
+        <v>0.09928680455755488</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03211165050767491</v>
+        <v>0.04519876951875797</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2285837418.54688</v>
+        <v>1791310720.76561</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07119373593927682</v>
+        <v>0.09242574766240193</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05089719946651135</v>
+        <v>0.03384248134940337</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3210611947.740316</v>
+        <v>5304117887.231555</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1190262420844934</v>
+        <v>0.1227626555820143</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04275214231364163</v>
+        <v>0.04086624337858323</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2568756572.870154</v>
+        <v>3214019260.699805</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1137981826347005</v>
+        <v>0.1674257441700678</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02834512283523705</v>
+        <v>0.02630446508584055</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1262680634.868752</v>
+        <v>1153328997.088968</v>
       </c>
       <c r="F19" t="n">
-        <v>0.171446978796634</v>
+        <v>0.1200669541371989</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02673974802801974</v>
+        <v>0.01963423391612128</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1934437503.090913</v>
+        <v>1971745384.913414</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1183607217341294</v>
+        <v>0.1440093643740499</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02767520807537749</v>
+        <v>0.0263968744052381</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2670649628.22187</v>
+        <v>2282898285.92876</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06790474510714106</v>
+        <v>0.07901159887566052</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04114933881956395</v>
+        <v>0.03053239276470581</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3909338874.823363</v>
+        <v>3514078566.271959</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1420817037353183</v>
+        <v>0.1402505567349356</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05633425238566935</v>
+        <v>0.0364277534216526</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1184106882.829279</v>
+        <v>1411101865.8932</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1235908633600546</v>
+        <v>0.1826527062035532</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05340219492314407</v>
+        <v>0.03520953162771837</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3601535103.076497</v>
+        <v>4066653475.124837</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1347140397446405</v>
+        <v>0.1370735308262684</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0321742578966093</v>
+        <v>0.0245361248880008</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1007907982.448491</v>
+        <v>1414979128.490157</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09804407125803179</v>
+        <v>0.1177263508870882</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02082228250188405</v>
+        <v>0.02479296314130188</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1086384306.353725</v>
+        <v>946646895.3114614</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1101623276133076</v>
+        <v>0.08311333986411934</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03182053485913934</v>
+        <v>0.03199702505515276</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3592864856.198113</v>
+        <v>3195982620.21955</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1538409608297</v>
+        <v>0.1196133952049981</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01965230229724827</v>
+        <v>0.01868025328893257</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2497885573.987768</v>
+        <v>3822495615.444252</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1225916464621129</v>
+        <v>0.1421232622949808</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04064233987798724</v>
+        <v>0.03542694877515277</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5864647453.84341</v>
+        <v>5393247511.111647</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1343110184434592</v>
+        <v>0.1434973368767765</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04102695466615522</v>
+        <v>0.03653828490520945</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1699574742.452515</v>
+        <v>2154827083.703325</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1155408096980184</v>
+        <v>0.1011812900035302</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03762065959102825</v>
+        <v>0.02464442043253898</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>919884007.4740453</v>
+        <v>1327297174.815545</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08075912006292491</v>
+        <v>0.07545105493789479</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04862850966325748</v>
+        <v>0.04520459044197248</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1770294255.648015</v>
+        <v>1786708577.814878</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0971124783026231</v>
+        <v>0.1104268856448791</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02672183593585173</v>
+        <v>0.02751729770065799</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1956621058.618598</v>
+        <v>3060679405.392064</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1966174686799739</v>
+        <v>0.1610775757647058</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04111045803628836</v>
+        <v>0.0488149188902362</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>969965972.9660113</v>
+        <v>1453226128.056902</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09869088093019798</v>
+        <v>0.1196412223249338</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02703354404390442</v>
+        <v>0.01824908698385731</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1064737476.538656</v>
+        <v>935260682.6880759</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1029949149990812</v>
+        <v>0.08842841865237298</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04318308007300915</v>
+        <v>0.03286699242420335</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3133549533.026885</v>
+        <v>2074649716.933808</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1746565242049605</v>
+        <v>0.1456601231235822</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02176301677179728</v>
+        <v>0.02777563271556367</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2013958199.286034</v>
+        <v>2736635386.682263</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07055486655261961</v>
+        <v>0.07681220528963466</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04161519107047666</v>
+        <v>0.03838104852679489</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2130791901.574487</v>
+        <v>1399483251.807696</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08041652375521664</v>
+        <v>0.09087622759467352</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03662492860363269</v>
+        <v>0.03639948498024549</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1515588054.716957</v>
+        <v>1620120658.576824</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1591666262063947</v>
+        <v>0.124375700965901</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02881325590227833</v>
+        <v>0.02872646481487347</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1519184920.311874</v>
+        <v>1282160041.819955</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1260680505322153</v>
+        <v>0.135497313461117</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04445265641714054</v>
+        <v>0.05181741149168845</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2915365117.420619</v>
+        <v>2891458898.470234</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1378455816501483</v>
+        <v>0.1185041607282881</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04245704183432735</v>
+        <v>0.0315898519853153</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3419150616.973463</v>
+        <v>4167403358.811868</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1087833756620281</v>
+        <v>0.120501115296228</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04036132404550325</v>
+        <v>0.04398220861048716</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1906886687.873076</v>
+        <v>1933820570.652118</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1435556464175135</v>
+        <v>0.146872167485511</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01772348181170621</v>
+        <v>0.02442784617729523</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1988458825.964688</v>
+        <v>1547093503.485366</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09362501851686361</v>
+        <v>0.08551004055418225</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02479737804050243</v>
+        <v>0.03551076684517566</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2496816340.505119</v>
+        <v>2202603639.111844</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1887432609229555</v>
+        <v>0.183455664411514</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05578891785318595</v>
+        <v>0.04484554666546195</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4862068410.438175</v>
+        <v>4290659824.299919</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1203580423889309</v>
+        <v>0.1781057127539632</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05323752445477328</v>
+        <v>0.05400291605753571</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4269617868.87981</v>
+        <v>3462887122.408336</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1468624283903778</v>
+        <v>0.1313839243245465</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05434554167476113</v>
+        <v>0.0424157222202439</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2945032184.933493</v>
+        <v>3594731857.797317</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09955443925851566</v>
+        <v>0.0989845462819763</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03397843420425834</v>
+        <v>0.02551019560506131</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1282875962.622689</v>
+        <v>1590839476.091736</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1895039498878633</v>
+        <v>0.1830535664580271</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03649575752117377</v>
+        <v>0.03575408325769928</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4078633018.550194</v>
+        <v>3669701193.600108</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1593342456964969</v>
+        <v>0.1614489072201846</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05319350927428642</v>
+        <v>0.05134657326670624</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1112712141.549618</v>
+        <v>1138057642.592092</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1422619708339384</v>
+        <v>0.1960374184346626</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05382292265766963</v>
+        <v>0.04642749315900992</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3620652706.28511</v>
+        <v>4140203963.425916</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1374011778744009</v>
+        <v>0.08779735829178668</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05740477460363223</v>
+        <v>0.05102200291920536</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2460326040.471867</v>
+        <v>3541713468.868692</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1992710727804106</v>
+        <v>0.1455191508144477</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0257199630805157</v>
+        <v>0.03436089467488464</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3593537136.441317</v>
+        <v>3841687115.245695</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1590843272120138</v>
+        <v>0.1345786167999092</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04255061792357089</v>
+        <v>0.04793131904024833</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4617763890.821603</v>
+        <v>4085824620.823146</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1390144907795065</v>
+        <v>0.1861177719497495</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02917851008218437</v>
+        <v>0.02393386299851718</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1442892191.923647</v>
+        <v>1359722084.685077</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1429940805485255</v>
+        <v>0.1089504190916039</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05372798814605509</v>
+        <v>0.03517921486449985</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3657708706.251327</v>
+        <v>3575312134.527258</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1456010625791757</v>
+        <v>0.1294528598378905</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02543757291010042</v>
+        <v>0.01979560158939088</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1783054598.339881</v>
+        <v>1318250221.062242</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1294128250346602</v>
+        <v>0.1294156331550577</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02446669104788266</v>
+        <v>0.03657088719898524</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3577814064.096302</v>
+        <v>3886639138.270308</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07939404576070547</v>
+        <v>0.1079074086386721</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03389262011224532</v>
+        <v>0.04463459083890153</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3710237887.152905</v>
+        <v>2600539206.815834</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1946102120170089</v>
+        <v>0.1786014358875427</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03128421176048404</v>
+        <v>0.0315493352451752</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2569163283.99933</v>
+        <v>2079631054.807101</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1193511449158063</v>
+        <v>0.1381392071173301</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02469893015223639</v>
+        <v>0.02985150168034989</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2059193044.560388</v>
+        <v>2039552343.347099</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1268342026996488</v>
+        <v>0.1243221328264189</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04703133602704219</v>
+        <v>0.03938628168602804</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5386963210.006262</v>
+        <v>4945320956.397816</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07101451521478123</v>
+        <v>0.1004737906711025</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03858649439904203</v>
+        <v>0.03471185336122723</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3923929348.598464</v>
+        <v>5449395428.305979</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1681897478283605</v>
+        <v>0.1707791349804504</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03473798214231517</v>
+        <v>0.02803813213113429</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5882258695.179332</v>
+        <v>5525667028.582651</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1276976839433788</v>
+        <v>0.125896809287271</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0303322706503764</v>
+        <v>0.02231131327257537</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3662091385.761364</v>
+        <v>5488968324.639112</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1082634309280795</v>
+        <v>0.120724937780233</v>
       </c>
       <c r="G66" t="n">
-        <v>0.043469120663422</v>
+        <v>0.05048708428047145</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2741225597.528222</v>
+        <v>2641746275.529724</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08478377501385492</v>
+        <v>0.07473334081463248</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03294095635955475</v>
+        <v>0.04204657812471587</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4917122302.579253</v>
+        <v>4484462672.809299</v>
       </c>
       <c r="F68" t="n">
-        <v>0.133874751779354</v>
+        <v>0.1348382554794476</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05087873108150633</v>
+        <v>0.03832913514445218</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2475676512.54742</v>
+        <v>2308066038.734116</v>
       </c>
       <c r="F69" t="n">
-        <v>0.181552431353802</v>
+        <v>0.1677665980274932</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03927142843710144</v>
+        <v>0.05820027451340047</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3453320283.999203</v>
+        <v>2458034572.252517</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06688810741524825</v>
+        <v>0.07517118567311649</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04182184332275277</v>
+        <v>0.03426542402329082</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4391666882.558776</v>
+        <v>5398731203.095611</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1735201929608853</v>
+        <v>0.1606511415437851</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02634191586983425</v>
+        <v>0.03176912098772118</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1520645204.640016</v>
+        <v>1686525435.076024</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08359532980672793</v>
+        <v>0.09899845336527183</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04840487774923522</v>
+        <v>0.04043497198822572</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2361092925.199787</v>
+        <v>2663651651.076554</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0722926773418915</v>
+        <v>0.1040907778068108</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05265987948376344</v>
+        <v>0.03906755789239824</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3435102944.973664</v>
+        <v>3558636378.018412</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1798695102076579</v>
+        <v>0.1291164022887321</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0326206347537597</v>
+        <v>0.03066650749214687</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2069580800.391313</v>
+        <v>1705944562.785657</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1213130638525933</v>
+        <v>0.1094894640834341</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02478564438146753</v>
+        <v>0.03660109736629536</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3293655111.095363</v>
+        <v>3648853382.430434</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08205205436460999</v>
+        <v>0.1088928946018675</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03427395714423421</v>
+        <v>0.02827477386624298</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1700403446.922397</v>
+        <v>2261379845.869601</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1719446222251611</v>
+        <v>0.1452937270807957</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02459128046570243</v>
+        <v>0.02294500994774459</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4266298843.454685</v>
+        <v>3101397364.023017</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1271567057103348</v>
+        <v>0.1266505743383003</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04913941276813621</v>
+        <v>0.04369991612476283</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1309948576.606154</v>
+        <v>1695206404.045001</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1295414369046319</v>
+        <v>0.1105457159507845</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02545888994370567</v>
+        <v>0.03401327971723628</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3559041950.449139</v>
+        <v>3949582357.418514</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08781584169087685</v>
+        <v>0.1095659164702443</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0281708021223435</v>
+        <v>0.02786877997612475</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4917332923.485361</v>
+        <v>3344308966.415896</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08828466474205611</v>
+        <v>0.1163746893458888</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0278797765026787</v>
+        <v>0.02574990027951645</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3557984657.13262</v>
+        <v>4881279743.840518</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1748409019032389</v>
+        <v>0.1824415464338697</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02467618549026614</v>
+        <v>0.02537235858570382</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1854521247.290992</v>
+        <v>1561844819.101381</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09858033994313437</v>
+        <v>0.1193496563760244</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0314023263207872</v>
+        <v>0.03385467999389176</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1730823100.687942</v>
+        <v>2371198059.647106</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08596017325193367</v>
+        <v>0.1208720269557969</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04891050661312255</v>
+        <v>0.03275271545048172</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3086258446.639817</v>
+        <v>2364627176.356173</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1699805187254431</v>
+        <v>0.1836102450804265</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04150497435023381</v>
+        <v>0.05609340699745675</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2462737283.243105</v>
+        <v>2483797078.301392</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1324914125750953</v>
+        <v>0.1107488629371644</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02489586568403444</v>
+        <v>0.01846740584364997</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1003920140.402281</v>
+        <v>1464007201.709763</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1579008694304914</v>
+        <v>0.1384729319463978</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03466291132072452</v>
+        <v>0.04324490777228289</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2549996953.639243</v>
+        <v>3194303489.487556</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1548843642578383</v>
+        <v>0.1196107735833533</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03110442257351631</v>
+        <v>0.02762493361373694</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3006483616.01092</v>
+        <v>3258024398.577294</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1488618632609566</v>
+        <v>0.1366021273198987</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03824585538259969</v>
+        <v>0.02768254817101699</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1362345566.988872</v>
+        <v>1840977025.61398</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09742785491510809</v>
+        <v>0.09034494921944042</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05445008263354051</v>
+        <v>0.04308338961719205</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2104001765.946609</v>
+        <v>1665452852.965944</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1296823526468498</v>
+        <v>0.18303238792915</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03802791216674508</v>
+        <v>0.04853480110616586</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2133155921.864893</v>
+        <v>2114782582.799978</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09788990463890354</v>
+        <v>0.07272139512125403</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03574315536220009</v>
+        <v>0.02906873061521712</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3626048490.187342</v>
+        <v>3678945765.233019</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09987223100391737</v>
+        <v>0.12636037950778</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0549209958094771</v>
+        <v>0.04754393692350475</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2025519196.659169</v>
+        <v>2087942230.425358</v>
       </c>
       <c r="F94" t="n">
-        <v>0.168607015013884</v>
+        <v>0.155638047443695</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03201835774469629</v>
+        <v>0.0388924023544435</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2475236469.240633</v>
+        <v>2973867924.711781</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1250252652129328</v>
+        <v>0.09454864109086719</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05159653991305256</v>
+        <v>0.05133149257137286</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1569881443.587632</v>
+        <v>1489193234.58815</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1362975574930025</v>
+        <v>0.09161248763154065</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04017215834084333</v>
+        <v>0.04621012364400116</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3750163428.559526</v>
+        <v>4840676250.21253</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1399605942623769</v>
+        <v>0.1506187461710279</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02015457957479249</v>
+        <v>0.02673918668976353</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2605677130.767719</v>
+        <v>2999838970.682503</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1260299192086712</v>
+        <v>0.1174894550954575</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03284854846061974</v>
+        <v>0.0204451018515659</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2169198318.326889</v>
+        <v>2315142749.161765</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09345597221849493</v>
+        <v>0.1403442173530605</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03339032192632813</v>
+        <v>0.02988308863582901</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4782207105.376503</v>
+        <v>3591446980.576368</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1478384598913322</v>
+        <v>0.1160907385116996</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02818150911997353</v>
+        <v>0.02376307387108613</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2840977150.370335</v>
+        <v>2792264113.39531</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1727323008214689</v>
+        <v>0.202677473650022</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05384313020601158</v>
+        <v>0.03744523758975328</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_282.xlsx
+++ b/output/fit_clients/fit_round_282.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2323931518.309466</v>
+        <v>2110860700.883334</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1015857725647043</v>
+        <v>0.07761075134857097</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02791588579385216</v>
+        <v>0.04320390830672387</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1921875556.197879</v>
+        <v>2599070934.959435</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1689818131302352</v>
+        <v>0.1531973267665153</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0308151156155225</v>
+        <v>0.04172267928659585</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5074917054.803505</v>
+        <v>3265702249.042833</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1400317274660949</v>
+        <v>0.1361333928115087</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03715054212048243</v>
+        <v>0.0324131644769577</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>150</v>
+      </c>
+      <c r="J4" t="n">
+        <v>280</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3819524485.204636</v>
+        <v>4232107842.923477</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07154131031357032</v>
+        <v>0.08166845600907888</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04421506364943045</v>
+        <v>0.03348267005391461</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>113</v>
+      </c>
+      <c r="J5" t="n">
+        <v>282</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2136600963.63885</v>
+        <v>1991871959.298801</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1296558990372637</v>
+        <v>0.1231086786557996</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05157108886714296</v>
+        <v>0.04612320481898102</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2230009556.073183</v>
+        <v>2121858316.055626</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09830883289000177</v>
+        <v>0.08175385933104869</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04547871134900028</v>
+        <v>0.03925755951859326</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3160300378.354674</v>
+        <v>3734192747.317142</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1373951463124832</v>
+        <v>0.1433530252613543</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03172597487910338</v>
+        <v>0.02364496645872121</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>74</v>
+      </c>
+      <c r="J8" t="n">
+        <v>282</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1796308868.158325</v>
+        <v>2207124771.405628</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1443053855789938</v>
+        <v>0.1562534579971966</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03009760351259161</v>
+        <v>0.0344762360348467</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5047141784.654881</v>
+        <v>4865974425.439344</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1822180640823702</v>
+        <v>0.1652234206974395</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05327350874520487</v>
+        <v>0.03458925958333596</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>253</v>
+      </c>
+      <c r="J10" t="n">
+        <v>282</v>
+      </c>
+      <c r="K10" t="n">
+        <v>92.76849761734378</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2887971168.803678</v>
+        <v>2941425143.036776</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1286544040632596</v>
+        <v>0.1756574953820611</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0500018920623409</v>
+        <v>0.03703043345007489</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>113</v>
+      </c>
+      <c r="J11" t="n">
+        <v>281</v>
+      </c>
+      <c r="K11" t="n">
+        <v>44.04907838793507</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3009016733.966416</v>
+        <v>3164296800.126057</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1976574521730318</v>
+        <v>0.1792794895699991</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0344541322601463</v>
+        <v>0.04064473549050052</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3999647411.138175</v>
+        <v>4791738585.543892</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08984762967938525</v>
+        <v>0.06149963335448035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02593226382935753</v>
+        <v>0.02765020529821039</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>144</v>
+      </c>
+      <c r="J13" t="n">
+        <v>281</v>
+      </c>
+      <c r="K13" t="n">
+        <v>89.37025788357053</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2645591866.582804</v>
+        <v>3446392022.435496</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1434636723761533</v>
+        <v>0.1531089402275925</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03517180363402064</v>
+        <v>0.03314801350369941</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>57</v>
+      </c>
+      <c r="J14" t="n">
+        <v>276</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1334539173.712293</v>
+        <v>1612318426.513036</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09928680455755488</v>
+        <v>0.07418682911387975</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04519876951875797</v>
+        <v>0.03430114592881179</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1791310720.76561</v>
+        <v>2109189942.003456</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09242574766240193</v>
+        <v>0.08070828713233302</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03384248134940337</v>
+        <v>0.03937017372997509</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5304117887.231555</v>
+        <v>4974930876.072666</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1227626555820143</v>
+        <v>0.1642733149618173</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04086624337858323</v>
+        <v>0.04436269199321106</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>135</v>
+      </c>
+      <c r="J17" t="n">
+        <v>281</v>
+      </c>
+      <c r="K17" t="n">
+        <v>82.10338156152858</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3214019260.699805</v>
+        <v>3289822335.908052</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1674257441700678</v>
+        <v>0.1723883772091598</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02630446508584055</v>
+        <v>0.0316981218390172</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>71</v>
+      </c>
+      <c r="J18" t="n">
+        <v>275</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1153328997.088968</v>
+        <v>1175207995.099597</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1200669541371989</v>
+        <v>0.1911015185436437</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01963423391612128</v>
+        <v>0.01758155208783945</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1971745384.913414</v>
+        <v>2128781483.567957</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1440093643740499</v>
+        <v>0.1441256965924352</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0263968744052381</v>
+        <v>0.02533054171331065</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2282898285.92876</v>
+        <v>1947253787.94546</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07901159887566052</v>
+        <v>0.09939466761310448</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03053239276470581</v>
+        <v>0.03132970884659144</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3514078566.271959</v>
+        <v>3583149972.275033</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1402505567349356</v>
+        <v>0.1193504153776447</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0364277534216526</v>
+        <v>0.04342360464503536</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>74</v>
+      </c>
+      <c r="J22" t="n">
+        <v>282</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1411101865.8932</v>
+        <v>1418271492.492735</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1826527062035532</v>
+        <v>0.1388267651377581</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03520953162771837</v>
+        <v>0.05402619188706604</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4066653475.124837</v>
+        <v>4043709249.206279</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1370735308262684</v>
+        <v>0.1398916022973754</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0245361248880008</v>
+        <v>0.033873041886083</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>83</v>
+      </c>
+      <c r="J24" t="n">
+        <v>282</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1414979128.490157</v>
+        <v>1252391580.534061</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1177263508870882</v>
+        <v>0.09199987157524132</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02479296314130188</v>
+        <v>0.02799484913375939</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>946646895.3114614</v>
+        <v>1365370036.326541</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08311333986411934</v>
+        <v>0.08173030185686908</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03199702505515276</v>
+        <v>0.03266956520086355</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1384,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3195982620.21955</v>
+        <v>2958878512.157888</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1196133952049981</v>
+        <v>0.1575536916816152</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01868025328893257</v>
+        <v>0.0166859454155216</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>115</v>
+      </c>
+      <c r="J27" t="n">
+        <v>279</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,16 +1419,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3822495615.444252</v>
+        <v>2528401262.701604</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1421232622949808</v>
+        <v>0.1092942612835943</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03542694877515277</v>
+        <v>0.04615492073403048</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>58</v>
+      </c>
+      <c r="J28" t="n">
+        <v>281</v>
+      </c>
+      <c r="K28" t="n">
+        <v>31.88355292525673</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5393247511.111647</v>
+        <v>5705678222.561357</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1434973368767765</v>
+        <v>0.1358486539424668</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03653828490520945</v>
+        <v>0.03867268735440705</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>268</v>
+      </c>
+      <c r="J29" t="n">
+        <v>282</v>
+      </c>
+      <c r="K29" t="n">
+        <v>94.1102588386088</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2154827083.703325</v>
+        <v>2380966713.604703</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1011812900035302</v>
+        <v>0.1033239284038478</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02464442043253898</v>
+        <v>0.03403374577568599</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1327297174.815545</v>
+        <v>1093217096.187606</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07545105493789479</v>
+        <v>0.09867107473563479</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04520459044197248</v>
+        <v>0.04252911934769541</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1786708577.814878</v>
+        <v>1879940845.79216</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1104268856448791</v>
+        <v>0.08776514402100316</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02751729770065799</v>
+        <v>0.02394741654048731</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3060679405.392064</v>
+        <v>2598847450.995724</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1610775757647058</v>
+        <v>0.1586244916766369</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0488149188902362</v>
+        <v>0.04757984496477197</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1453226128.056902</v>
+        <v>1089274022.79194</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1196412223249338</v>
+        <v>0.08538776465333787</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01824908698385731</v>
+        <v>0.01803087569480365</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>935260682.6880759</v>
+        <v>1308702915.725503</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08842841865237298</v>
+        <v>0.1177989237682423</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03286699242420335</v>
+        <v>0.0403397759239732</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2074649716.933808</v>
+        <v>2942404872.931201</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1456601231235822</v>
+        <v>0.1495744355574647</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02777563271556367</v>
+        <v>0.02068750390582332</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2736635386.682263</v>
+        <v>2550384489.315355</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07681220528963466</v>
+        <v>0.09102560452357043</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03838104852679489</v>
+        <v>0.04186601453169344</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1399483251.807696</v>
+        <v>1613778033.349113</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09087622759467352</v>
+        <v>0.107813407700151</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03639948498024549</v>
+        <v>0.03236602783811285</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1620120658.576824</v>
+        <v>1922589701.888484</v>
       </c>
       <c r="F39" t="n">
-        <v>0.124375700965901</v>
+        <v>0.1282507458163689</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02872646481487347</v>
+        <v>0.02135793680938161</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1282160041.819955</v>
+        <v>1642422711.596914</v>
       </c>
       <c r="F40" t="n">
-        <v>0.135497313461117</v>
+        <v>0.1111326050317158</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05181741149168845</v>
+        <v>0.04567002370894163</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2891458898.470234</v>
+        <v>2595119567.838069</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1185041607282881</v>
+        <v>0.1657557533190325</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0315898519853153</v>
+        <v>0.03858067129711788</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4167403358.811868</v>
+        <v>3175115265.608372</v>
       </c>
       <c r="F42" t="n">
-        <v>0.120501115296228</v>
+        <v>0.09974132075873957</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04398220861048716</v>
+        <v>0.04090709173603042</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>118</v>
+      </c>
+      <c r="J42" t="n">
+        <v>281</v>
+      </c>
+      <c r="K42" t="n">
+        <v>50.60883574498489</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1933820570.652118</v>
+        <v>2815916379.09906</v>
       </c>
       <c r="F43" t="n">
-        <v>0.146872167485511</v>
+        <v>0.1877122041390097</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02442784617729523</v>
+        <v>0.0254922144571116</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1547093503.485366</v>
+        <v>2125073708.941836</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08551004055418225</v>
+        <v>0.08662524037415233</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03551076684517566</v>
+        <v>0.02603200317151145</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2202603639.111844</v>
+        <v>2508930057.941947</v>
       </c>
       <c r="F45" t="n">
-        <v>0.183455664411514</v>
+        <v>0.128939056573609</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04484554666546195</v>
+        <v>0.03622201335140078</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4290659824.299919</v>
+        <v>4260187684.878949</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1781057127539632</v>
+        <v>0.1506547969275915</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05400291605753571</v>
+        <v>0.04833915121473139</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>165</v>
+      </c>
+      <c r="J46" t="n">
+        <v>282</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3462887122.408336</v>
+        <v>4496266605.783401</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1313839243245465</v>
+        <v>0.1835639191520427</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0424157222202439</v>
+        <v>0.05593213477554882</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>127</v>
+      </c>
+      <c r="J47" t="n">
+        <v>281</v>
+      </c>
+      <c r="K47" t="n">
+        <v>74.78721880190075</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3594731857.797317</v>
+        <v>3185053938.01144</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0989845462819763</v>
+        <v>0.09754895054695682</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02551019560506131</v>
+        <v>0.03016239705279633</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>140</v>
+      </c>
+      <c r="J48" t="n">
+        <v>280</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1590839476.091736</v>
+        <v>1431421719.376293</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1830535664580271</v>
+        <v>0.1738208323043303</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03575408325769928</v>
+        <v>0.04073374943072542</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2197,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3669701193.600108</v>
+        <v>2928555342.693716</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1614489072201846</v>
+        <v>0.1128243305205706</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05134657326670624</v>
+        <v>0.03667170618221656</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>90</v>
+      </c>
+      <c r="J50" t="n">
+        <v>279</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1138057642.592092</v>
+        <v>1061672674.978733</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1960374184346626</v>
+        <v>0.1546516771477808</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04642749315900992</v>
+        <v>0.05083529809152241</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4140203963.425916</v>
+        <v>4324436099.796003</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08779735829178668</v>
+        <v>0.1312974012915271</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05102200291920536</v>
+        <v>0.05661142811549089</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>177</v>
+      </c>
+      <c r="J52" t="n">
+        <v>281</v>
+      </c>
+      <c r="K52" t="n">
+        <v>80.79891549171215</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3541713468.868692</v>
+        <v>3543363643.435939</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1455191508144477</v>
+        <v>0.1523101035541084</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03436089467488464</v>
+        <v>0.03192707491575444</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>39</v>
+      </c>
+      <c r="J53" t="n">
+        <v>282</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3841687115.245695</v>
+        <v>3163518902.457982</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1345786167999092</v>
+        <v>0.109926238463977</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04793131904024833</v>
+        <v>0.03330454800328365</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>149</v>
+      </c>
+      <c r="J54" t="n">
+        <v>281</v>
+      </c>
+      <c r="K54" t="n">
+        <v>43.98037862596326</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4085824620.823146</v>
+        <v>4462444191.970625</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1861177719497495</v>
+        <v>0.1598359027549037</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02393386299851718</v>
+        <v>0.02974233885388728</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>128</v>
+      </c>
+      <c r="J55" t="n">
+        <v>281</v>
+      </c>
+      <c r="K55" t="n">
+        <v>88.80641219630132</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1359722084.685077</v>
+        <v>1318040149.818605</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1089504190916039</v>
+        <v>0.1498849457666089</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03517921486449985</v>
+        <v>0.03781800456937703</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3575312134.527258</v>
+        <v>3602385959.322263</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1294528598378905</v>
+        <v>0.1440640337458535</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01979560158939088</v>
+        <v>0.02685100610155922</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>114</v>
+      </c>
+      <c r="J57" t="n">
+        <v>282</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1318250221.062242</v>
+        <v>1706012324.188623</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1294156331550577</v>
+        <v>0.1224158782316898</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03657088719898524</v>
+        <v>0.0276051122642337</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3886639138.270308</v>
+        <v>5148975002.971909</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1079074086386721</v>
+        <v>0.129051122390738</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04463459083890153</v>
+        <v>0.04475282523867621</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>136</v>
+      </c>
+      <c r="J59" t="n">
+        <v>281</v>
+      </c>
+      <c r="K59" t="n">
+        <v>85.24232077525214</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2549,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2600539206.815834</v>
+        <v>3715691757.191803</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1786014358875427</v>
+        <v>0.1257468531099414</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0315493352451752</v>
+        <v>0.02977826179870928</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>46</v>
+      </c>
+      <c r="J60" t="n">
+        <v>281</v>
+      </c>
+      <c r="K60" t="n">
+        <v>70.70041259120799</v>
       </c>
     </row>
     <row r="61">
@@ -2138,16 +2592,25 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2079631054.807101</v>
+        <v>2449032925.32303</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1381392071173301</v>
+        <v>0.1690722772068809</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02985150168034989</v>
+        <v>0.03237586706078292</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="n">
+        <v>32.89037923257477</v>
       </c>
     </row>
     <row r="62">
@@ -2166,17 +2629,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2039552343.347099</v>
+        <v>1436814022.380978</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1243221328264189</v>
+        <v>0.1908185436211563</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03938628168602804</v>
+        <v>0.03941889202743765</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2664,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4945320956.397816</v>
+        <v>5148827451.362832</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1004737906711025</v>
+        <v>0.1012492086930288</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03471185336122723</v>
+        <v>0.04338071721786693</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>137</v>
+      </c>
+      <c r="J63" t="n">
+        <v>281</v>
+      </c>
+      <c r="K63" t="n">
+        <v>86.38271568334149</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2695,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5449395428.305979</v>
+        <v>3950326293.214743</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1707791349804504</v>
+        <v>0.1308137657102149</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02803813213113429</v>
+        <v>0.02468758431202959</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>138</v>
+      </c>
+      <c r="J64" t="n">
+        <v>282</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2736,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5525667028.582651</v>
+        <v>4546241933.286108</v>
       </c>
       <c r="F65" t="n">
-        <v>0.125896809287271</v>
+        <v>0.1177354252275592</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02231131327257537</v>
+        <v>0.02957378538537614</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>226</v>
+      </c>
+      <c r="J65" t="n">
+        <v>282</v>
+      </c>
+      <c r="K65" t="n">
+        <v>90.28775302078859</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2767,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5488968324.639112</v>
+        <v>5443528237.401014</v>
       </c>
       <c r="F66" t="n">
-        <v>0.120724937780233</v>
+        <v>0.1149008689073711</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05048708428047145</v>
+        <v>0.04960110637635671</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>139</v>
+      </c>
+      <c r="J66" t="n">
+        <v>282</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2641746275.529724</v>
+        <v>3063113990.945423</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07473334081463248</v>
+        <v>0.06852562534155035</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04204657812471587</v>
+        <v>0.0442426230914267</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2837,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4484462672.809299</v>
+        <v>4114303234.747227</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1348382554794476</v>
+        <v>0.1585566869551129</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03832913514445218</v>
+        <v>0.0451087508873301</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>146</v>
+      </c>
+      <c r="J68" t="n">
+        <v>282</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2308066038.734116</v>
+        <v>1543608530.828765</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1677665980274932</v>
+        <v>0.1820466447147699</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05820027451340047</v>
+        <v>0.03727606038536785</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2913,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2458034572.252517</v>
+        <v>3381115118.068079</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07517118567311649</v>
+        <v>0.08002686247693518</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03426542402329082</v>
+        <v>0.03462601427515069</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>41</v>
+      </c>
+      <c r="J70" t="n">
+        <v>280</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2948,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5398731203.095611</v>
+        <v>5100562633.375395</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1606511415437851</v>
+        <v>0.1602046544820493</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03176912098772118</v>
+        <v>0.03115043707211101</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>211</v>
+      </c>
+      <c r="J71" t="n">
+        <v>282</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1686525435.076024</v>
+        <v>1946864753.844435</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09899845336527183</v>
+        <v>0.09495950435943894</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04043497198822572</v>
+        <v>0.03366423738588279</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2663651651.076554</v>
+        <v>2322276417.875875</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1040907778068108</v>
+        <v>0.07431208796625566</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03906755789239824</v>
+        <v>0.03260251849387155</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3558636378.018412</v>
+        <v>2547397707.362257</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1291164022887321</v>
+        <v>0.1152055527320815</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03066650749214687</v>
+        <v>0.03244129444535957</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1705944562.785657</v>
+        <v>1769902002.535683</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1094894640834341</v>
+        <v>0.1327986248453243</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03660109736629536</v>
+        <v>0.02763648959251248</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3648853382.430434</v>
+        <v>3682919450.609192</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1088928946018675</v>
+        <v>0.08109747669023935</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02827477386624298</v>
+        <v>0.03407882506214808</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>132</v>
+      </c>
+      <c r="J76" t="n">
+        <v>282</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2261379845.869601</v>
+        <v>2246550243.367788</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1452937270807957</v>
+        <v>0.1388612837566382</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02294500994774459</v>
+        <v>0.01961739120853447</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3101397364.023017</v>
+        <v>3434212338.728874</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1266505743383003</v>
+        <v>0.08339091709227428</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04369991612476283</v>
+        <v>0.03620311272860089</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>141</v>
+      </c>
+      <c r="J78" t="n">
+        <v>280</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1695206404.045001</v>
+        <v>1510256272.776621</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1105457159507845</v>
+        <v>0.1584730037118024</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03401327971723628</v>
+        <v>0.03762077019765225</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3949582357.418514</v>
+        <v>4714134874.837219</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1095659164702443</v>
+        <v>0.08855368675223264</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02786877997612475</v>
+        <v>0.02546378000995787</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>138</v>
+      </c>
+      <c r="J80" t="n">
+        <v>281</v>
+      </c>
+      <c r="K80" t="n">
+        <v>67.21509607420457</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3344308966.415896</v>
+        <v>3669002260.059566</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1163746893458888</v>
+        <v>0.1244101821448902</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02574990027951645</v>
+        <v>0.02639031986470753</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>129</v>
+      </c>
+      <c r="J81" t="n">
+        <v>282</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4881279743.840518</v>
+        <v>5448073603.850476</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1824415464338697</v>
+        <v>0.1641419052449412</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02537235858570382</v>
+        <v>0.02386296860383192</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>209</v>
+      </c>
+      <c r="J82" t="n">
+        <v>282</v>
+      </c>
+      <c r="K82" t="n">
+        <v>90.66382584224142</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1561844819.101381</v>
+        <v>1981775278.003984</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1193496563760244</v>
+        <v>0.1027935355854216</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03385467999389176</v>
+        <v>0.04159478440512627</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2371198059.647106</v>
+        <v>2570252997.362737</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1208720269557969</v>
+        <v>0.1205782061799126</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03275271545048172</v>
+        <v>0.03288001207278042</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2364627176.356173</v>
+        <v>3565708898.293296</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836102450804265</v>
+        <v>0.171253103141664</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05609340699745675</v>
+        <v>0.03873076800446119</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>38</v>
+      </c>
+      <c r="J85" t="n">
+        <v>282</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2483797078.301392</v>
+        <v>2382860031.423823</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1107488629371644</v>
+        <v>0.1393487185974091</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01846740584364997</v>
+        <v>0.02210779040174465</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1464007201.709763</v>
+        <v>1425058300.531511</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1384729319463978</v>
+        <v>0.120109744145208</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04324490777228289</v>
+        <v>0.030423865734412</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3194303489.487556</v>
+        <v>2255908561.464412</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1196107735833533</v>
+        <v>0.1707993267330567</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02762493361373694</v>
+        <v>0.03915603140982556</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>40</v>
+      </c>
+      <c r="J88" t="n">
+        <v>280</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3258024398.577294</v>
+        <v>2171415248.153879</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1366021273198987</v>
+        <v>0.1351693115602777</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02768254817101699</v>
+        <v>0.03841760837860236</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1840977025.61398</v>
+        <v>2134140625.990627</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09034494921944042</v>
+        <v>0.1201287420516059</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04308338961719205</v>
+        <v>0.03511275728236528</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1665452852.965944</v>
+        <v>2098471722.851778</v>
       </c>
       <c r="F91" t="n">
-        <v>0.18303238792915</v>
+        <v>0.1543949581408045</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04853480110616586</v>
+        <v>0.04285606070278886</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2114782582.799978</v>
+        <v>2193655137.474247</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07272139512125403</v>
+        <v>0.09096872467268183</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02906873061521712</v>
+        <v>0.04030488511479628</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3678945765.233019</v>
+        <v>4513988020.058509</v>
       </c>
       <c r="F93" t="n">
-        <v>0.12636037950778</v>
+        <v>0.1074023195010977</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04754393692350475</v>
+        <v>0.05195145512692999</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>123</v>
+      </c>
+      <c r="J93" t="n">
+        <v>282</v>
+      </c>
+      <c r="K93" t="n">
+        <v>89.62490021091037</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2087942230.425358</v>
+        <v>1863546470.727109</v>
       </c>
       <c r="F94" t="n">
-        <v>0.155638047443695</v>
+        <v>0.1185930710210408</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0388924023544435</v>
+        <v>0.03878139565879854</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2973867924.711781</v>
+        <v>3189254412.193507</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09454864109086719</v>
+        <v>0.08415963699182724</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05133149257137286</v>
+        <v>0.03242796565464709</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1489193234.58815</v>
+        <v>1601212418.28227</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09161248763154065</v>
+        <v>0.136300863559598</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04621012364400116</v>
+        <v>0.04634999455143871</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4840676250.21253</v>
+        <v>3537000064.828726</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1506187461710279</v>
+        <v>0.130454079338651</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02673918668976353</v>
+        <v>0.02789891211450314</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>140</v>
+      </c>
+      <c r="J97" t="n">
+        <v>280</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2999838970.682503</v>
+        <v>3225075775.029646</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1174894550954575</v>
+        <v>0.1270995435648465</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0204451018515659</v>
+        <v>0.02959181599636581</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>67</v>
+      </c>
+      <c r="J98" t="n">
+        <v>278</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2315142749.161765</v>
+        <v>2777686725.582367</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1403442173530605</v>
+        <v>0.09616118016240781</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02988308863582901</v>
+        <v>0.03305337523354723</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3591446980.576368</v>
+        <v>4165294770.433875</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1160907385116996</v>
+        <v>0.1259914110543658</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02376307387108613</v>
+        <v>0.02711519675404325</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>120</v>
+      </c>
+      <c r="J100" t="n">
+        <v>282</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2792264113.39531</v>
+        <v>3492180286.330133</v>
       </c>
       <c r="F101" t="n">
-        <v>0.202677473650022</v>
+        <v>0.204220318278365</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03744523758975328</v>
+        <v>0.05294790701797426</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="n">
+        <v>62.81326686333223</v>
       </c>
     </row>
   </sheetData>
